--- a/resources/inputText/nicknames.xlsx
+++ b/resources/inputText/nicknames.xlsx
@@ -1101,47 +1101,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1472,7 +1432,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,7 +1482,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <f>1</f>
         <v>1</v>
@@ -2346,7 +2306,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2369,7 +2329,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2594,7 +2554,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2684,7 +2644,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2820,7 +2780,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <f t="shared" ref="A68:A96" si="1">A67+1</f>
         <v>67</v>
@@ -2938,7 +2898,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3067,7 +3027,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3203,7 +3163,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>92</v>

--- a/resources/inputText/nicknames.xlsx
+++ b/resources/inputText/nicknames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -994,13 +994,16 @@
   </si>
   <si>
     <t>real decreto 1835/1991, de 20 de diciembre, sobre federaciones deportivas</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1049,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1067,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1090,11 +1099,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1431,18 +1443,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="36.6328125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="42.08984375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="42.08984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="10" customWidth="1"/>
     <col min="7" max="7" width="28.1796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.90625" style="2" customWidth="1"/>
@@ -1511,7 +1523,9 @@
       <c r="I2" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -1531,10 +1545,18 @@
       <c r="F3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -1551,11 +1573,21 @@
       <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -1580,9 +1612,15 @@
       <c r="G5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -1599,11 +1637,21 @@
       <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -1623,10 +1671,18 @@
       <c r="F7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -1649,9 +1705,15 @@
       <c r="G8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
@@ -1676,9 +1738,15 @@
       <c r="G9" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
@@ -1695,11 +1763,21 @@
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="F10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
@@ -1719,10 +1797,18 @@
       <c r="F11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
@@ -1745,9 +1831,15 @@
       <c r="G12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
@@ -1776,7 +1868,9 @@
       <c r="I13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -1804,8 +1898,12 @@
       <c r="H14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -1825,10 +1923,18 @@
       <c r="F15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="G15" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
@@ -1848,10 +1954,18 @@
       <c r="F16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="G16" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
@@ -1871,10 +1985,18 @@
       <c r="F17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="G17" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
@@ -1896,10 +2018,18 @@
       <c r="F18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="G18" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -1949,11 +2079,21 @@
       <c r="E20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="F20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
@@ -1979,8 +2119,12 @@
       <c r="H21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
@@ -1997,11 +2141,21 @@
       <c r="E22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -2021,10 +2175,18 @@
       <c r="F23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -2044,10 +2206,18 @@
       <c r="F24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -2064,11 +2234,21 @@
       <c r="E25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
@@ -2088,10 +2268,18 @@
       <c r="F26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
@@ -2114,9 +2302,15 @@
       <c r="G27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
@@ -2136,10 +2330,18 @@
       <c r="F28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
@@ -2161,10 +2363,18 @@
       <c r="F29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
@@ -2187,9 +2397,15 @@
       <c r="G30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
@@ -2209,10 +2425,18 @@
       <c r="F31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -2232,10 +2456,18 @@
       <c r="F32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
@@ -2249,7 +2481,9 @@
         <v>205</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="F33" s="6" t="s">
         <v>206</v>
       </c>
@@ -2262,7 +2496,9 @@
       <c r="I33" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
@@ -2276,14 +2512,24 @@
         <v>204</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="F34" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
@@ -2297,14 +2543,24 @@
         <v>203</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="F35" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
@@ -2318,16 +2574,24 @@
         <v>202</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="F36" s="6" t="s">
         <v>282</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
@@ -2341,14 +2605,24 @@
         <v>201</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="F37" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
@@ -2362,12 +2636,24 @@
         <v>200</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
@@ -2381,12 +2667,24 @@
         <v>199</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
@@ -2400,7 +2698,9 @@
         <v>198</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="F40" s="6" t="s">
         <v>284</v>
       </c>
@@ -2410,8 +2710,12 @@
       <c r="H40" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
@@ -2425,34 +2729,81 @@
         <v>197</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>213</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2460,586 +2811,1235 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D45" s="13"/>
+      <c r="E45" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D48" s="13"/>
+      <c r="E48" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D49" s="13"/>
+      <c r="E49" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D50" s="13"/>
+      <c r="E50" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="D51" s="13"/>
+      <c r="E51" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="84.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H52" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D53" s="13"/>
+      <c r="E53" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D54" s="13"/>
+      <c r="E54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D55" s="13"/>
+      <c r="E55" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="H56" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G57" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G58" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D59" s="13"/>
+      <c r="E59" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D60" s="13"/>
+      <c r="E60" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G61" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D62" s="13"/>
+      <c r="E62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="D63" s="13"/>
+      <c r="E63" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G64" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D65" s="13"/>
+      <c r="E65" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D66" s="13"/>
+      <c r="E66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D67" s="13"/>
+      <c r="E67" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <f t="shared" ref="A68:A96" si="1">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="D68" s="13"/>
+      <c r="E68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D69" s="13"/>
+      <c r="E69" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="D70" s="13"/>
+      <c r="E70" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G70" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D71" s="13"/>
+      <c r="E71" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="D72" s="13"/>
+      <c r="E72" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I72" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="D73" s="13"/>
+      <c r="E73" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G73" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D74" s="13"/>
+      <c r="E74" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D75" s="13"/>
+      <c r="E75" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="13" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I76" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D77" s="13"/>
+      <c r="E77" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="D78" s="13"/>
+      <c r="E78" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I78" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D79" s="13"/>
+      <c r="E79" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D80" s="13"/>
+      <c r="E80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="D81" s="13"/>
+      <c r="E81" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="D82" s="13"/>
+      <c r="E82" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="13" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I82" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="D83" s="13"/>
+      <c r="E83" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>264</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3047,55 +4047,123 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="D84" s="13"/>
+      <c r="E84" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="G84" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D85" s="13"/>
+      <c r="E85" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D86" s="13"/>
+      <c r="E86" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="D87" s="13"/>
+      <c r="E87" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F87" s="13" t="s">
         <v>268</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3103,137 +4171,291 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F88" s="2"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F89" s="2"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="D92" s="13"/>
+      <c r="E92" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="D93" s="13"/>
+      <c r="E93" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="I93" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F94" s="2"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D95" s="13"/>
+      <c r="E95" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F96" s="2"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C97" s="11"/>
+      <c r="C97" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H29:J31 J19 B5 B10:G13 B6:G8 A1:J1 A3:G3 D5:G5 B9 D9:F9 I18:J18 J2 A2:B2 D2:G2 B20:G20 I20:J20 B18:B19 D18:G19 B30:G32 B29 D29:G29 B4:G4 A4:A96 B15:J17 H3:J11 J12 D14:J14 B14 B21:J28 H13:J13">
+  <conditionalFormatting sqref="B5 B10:G13 B6:G8 A1:J1 D5:G5 B9 D9:F9 A2:B2 D2:G2 B18:B19 D19:G19 B29 D29:G29 A4:A96 B14 B4:J4 J2:J3 A3:I3 J5:J19 F6:I6 G7:I7 F10:I10 G11:I11 H5:I13 D14:I14 I15:I18 B15:H15 B16:F17 D18:F18 G16:H18 B20:J20 B21:H21 J21:J80 I21:I32 B27:G28 B30:G32 B22:E22 H22:H32 B23:F24 B25:E25 B26:F26">
     <cfRule type="duplicateValues" dxfId="2" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29 C9 J32 G9 J39 C14 C2 H2:I2 C5 H19:I19 C18:C19 E33:G41 E46:G46 E42:J42 E44:J45 H43:J43 E43:F43 E47:J56 E58:J96 H57:J57 E57:F57 H40:J41 H33:J38 B33:C96">
+  <conditionalFormatting sqref="C29 C9 G9 C14 C2 H2:I2 C5 H19:I19 C18:C19 F52:G52 B33:C96 F72:H72 F33:I33 I94:J96 F81:J84 F93:J93 G88:J92 F87:J87 G85:J86 F78:H78 F36:G36 F34:F35 F40:H40 F37 F43 F57:F58 F76:H76 F73 F61 F64 F68 F70 F56:G56">
     <cfRule type="duplicateValues" dxfId="1" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:I11 B12:G12 I18 J19 B19:H19 B18:G18 B20:G20 I20 E39:G39 I39 E46:G46 E47:I56 E58:I96 H57:I57 E57:F57 B21:I31 B32:G32 E40:I42 E44:I45 H43:I43 E43:F43 E33:I38 B13:I17 B33:C96">
+  <conditionalFormatting sqref="B19:H19 F40:H40 F52:G52 B33:C96 B4:J4 J2:J3 B1:I3 J5:J19 B5:I18 B20:J20 J21:J80 B21:I21 F33:I33 I94:I96 F72:H72 F93:I93 G88:I92 F87:I87 G85:I86 F81:I84 F78:H78 F34:F35 F36:G36 F37 F43 F57:F58 F76:H76 F73 F61 F64 F68 F70 F56:G56 B27:I32 B22:E22 B23:F24 B25:E25 B26:F26 H22:I26">
     <cfRule type="duplicateValues" dxfId="0" priority="254"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/resources/inputText/nicknames.xlsx
+++ b/resources/inputText/nicknames.xlsx
@@ -21,9 +21,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>http://www.boe.es/boe/dias/2006/05/04/pdfs/A17158-17207.pdf</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1113,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1443,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,31 +1497,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -1500,31 +1530,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -1533,29 +1563,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1564,29 +1594,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1595,31 +1625,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1628,29 +1658,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -1659,29 +1689,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1690,29 +1720,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -1721,31 +1751,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1754,29 +1784,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -1785,29 +1815,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1816,29 +1846,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -1847,29 +1877,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1878,31 +1908,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1911,29 +1941,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1942,29 +1972,29 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -1973,29 +2003,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2004,31 +2034,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2037,31 +2067,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2070,29 +2100,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2101,29 +2131,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2132,29 +2162,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2163,29 +2193,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2194,29 +2224,29 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2225,29 +2255,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2256,29 +2286,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2287,29 +2317,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2318,29 +2348,29 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2349,31 +2379,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2382,29 +2412,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2413,29 +2443,29 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2444,29 +2474,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2475,29 +2505,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="J33" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
@@ -2506,29 +2536,29 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2537,29 +2567,29 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2568,29 +2598,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="H36" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2599,29 +2629,29 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2630,29 +2660,29 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2661,29 +2691,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -2692,29 +2722,29 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="I40" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="31" x14ac:dyDescent="0.35">
@@ -2723,29 +2753,29 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2757,22 +2787,22 @@
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
       <c r="E42" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2781,29 +2811,29 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2815,22 +2845,22 @@
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
       <c r="E44" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2839,29 +2869,29 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -2870,29 +2900,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2901,29 +2931,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2932,29 +2962,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2963,29 +2993,29 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2994,29 +3024,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3025,29 +3055,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="84.5" x14ac:dyDescent="0.35">
@@ -3056,29 +3086,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F52" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>224</v>
-      </c>
       <c r="H52" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3087,29 +3117,29 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3118,29 +3148,29 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3149,29 +3179,29 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
@@ -3180,29 +3210,29 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F56" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="H56" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3211,29 +3241,29 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
@@ -3242,29 +3272,29 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3273,29 +3303,29 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3304,29 +3334,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3335,29 +3365,29 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3366,29 +3396,29 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3397,29 +3427,29 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3428,29 +3458,29 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3459,29 +3489,29 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3490,29 +3520,29 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3521,29 +3551,29 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3552,29 +3582,29 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3583,29 +3613,29 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3614,29 +3644,29 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3645,29 +3675,29 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
@@ -3676,29 +3706,29 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F72" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H72" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G72" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="I72" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3707,29 +3737,29 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3738,29 +3768,29 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3769,29 +3799,29 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
@@ -3800,29 +3830,29 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F76" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="H76" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H76" s="13" t="s">
-        <v>252</v>
-      </c>
       <c r="I76" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3831,29 +3861,29 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3862,29 +3892,29 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F78" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G78" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="H78" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="I78" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3893,29 +3923,29 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -3924,29 +3954,29 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="70.5" x14ac:dyDescent="0.35">
@@ -3955,29 +3985,29 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F81" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G81" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="H81" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -3986,29 +4016,29 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F82" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="H82" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="I82" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
@@ -4017,29 +4047,29 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4048,29 +4078,29 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -4079,29 +4109,29 @@
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -4110,29 +4140,29 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -4141,29 +4171,29 @@
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4172,29 +4202,29 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4203,29 +4233,29 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4234,29 +4264,29 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4265,29 +4295,29 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4296,29 +4326,29 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
@@ -4327,29 +4357,29 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G93" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H93" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="I93" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -4358,29 +4388,29 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -4389,29 +4419,29 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
@@ -4420,44 +4450,35 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5 B10:G13 B6:G8 A1:J1 D5:G5 B9 D9:F9 A2:B2 D2:G2 B18:B19 D19:G19 B29 D29:G29 A4:A96 B14 B4:J4 J2:J3 A3:I3 J5:J19 F6:I6 G7:I7 F10:I10 G11:I11 H5:I13 D14:I14 I15:I18 B15:H15 B16:F17 D18:F18 G16:H18 B20:J20 B21:H21 J21:J80 I21:I32 B27:G28 B30:G32 B22:E22 H22:H32 B23:F24 B25:E25 B26:F26">
-    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29 C9 G9 C14 C2 H2:I2 C5 H19:I19 C18:C19 F52:G52 B33:C96 F72:H72 F33:I33 I94:J96 F81:J84 F93:J93 G88:J92 F87:J87 G85:J86 F78:H78 F36:G36 F34:F35 F40:H40 F37 F43 F57:F58 F76:H76 F73 F61 F64 F68 F70 F56:G56">
-    <cfRule type="duplicateValues" dxfId="1" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:H19 F40:H40 F52:G52 B33:C96 B4:J4 J2:J3 B1:I3 J5:J19 B5:I18 B20:J20 J21:J80 B21:I21 F33:I33 I94:I96 F72:H72 F93:I93 G88:I92 F87:I87 G85:I86 F81:I84 F78:H78 F34:F35 F36:G36 F37 F43 F57:F58 F76:H76 F73 F61 F64 F68 F70 F56:G56 B27:I32 B22:E22 B23:F24 B25:E25 B26:F26 H22:I26">
-    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E27" r:id="rId2"/>

--- a/resources/inputText/nicknames.xlsx
+++ b/resources/inputText/nicknames.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="328">
   <si>
     <t>id</t>
   </si>
@@ -997,6 +997,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>ley de accesibilidad</t>
   </si>
 </sst>
 </file>
@@ -1113,68 +1116,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1471,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,7 +1431,8 @@
     <col min="8" max="8" width="13.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.90625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="11" max="13" width="8.7265625" style="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -2530,7 +2473,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2592,7 +2535,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3578,7 +3521,7 @@
     </row>
     <row r="68" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <f t="shared" ref="A68:A96" si="1">A67+1</f>
+        <f t="shared" ref="A68:A97" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -4351,7 +4294,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="56.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4475,8 +4418,33 @@
         <v>325</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>327</v>
+      </c>
       <c r="C97" s="10"/>
+      <c r="E97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
